--- a/yabuki-a/PM演習矢吹a/PM演習C班/設計書/PM演習_設計書_yabuki研c班11.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習C班/設計書/PM演習_設計書_yabuki研c班11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Server-pc\win鯖\3年生\yabuki-c\PM演習\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\PM演習C班\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="732" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -2409,6 +2409,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2418,10 +2421,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2433,23 +2436,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2469,10 +2466,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3147,8 +3147,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6972748" y="1833282"/>
-          <a:ext cx="835510" cy="385482"/>
+          <a:off x="7788088" y="1815352"/>
+          <a:ext cx="952500" cy="381001"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -6613,16 +6613,16 @@
       <selection activeCell="D10" sqref="D10:N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="54" t="s">
         <v>96</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="Q1" s="71"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -6668,7 +6668,7 @@
       <c r="P2" s="82"/>
       <c r="Q2" s="83"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6687,7 +6687,7 @@
       <c r="P3" s="56"/>
       <c r="Q3" s="58"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -6706,7 +6706,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="48"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -6727,7 +6727,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="49"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -6746,7 +6746,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="49"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -6765,7 +6765,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -6784,7 +6784,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="49"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -6803,7 +6803,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="49"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -6824,7 +6824,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6843,7 +6843,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -6862,7 +6862,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -6883,7 +6883,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="49"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6902,7 +6902,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -6921,7 +6921,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="49"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6940,7 +6940,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="49"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -6959,7 +6959,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="49"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6978,7 +6978,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="49"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -6999,7 +6999,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="49"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="48"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -7018,7 +7018,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7037,7 +7037,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="49"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7056,7 +7056,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7075,7 +7075,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7094,7 +7094,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7113,7 +7113,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="49"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -7132,7 +7132,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="49"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -7151,7 +7151,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="49"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -7170,7 +7170,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="49"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -7191,7 +7191,7 @@
       <c r="P29" s="86"/>
       <c r="Q29" s="49"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="48"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -7216,7 +7216,7 @@
       <c r="P30" s="78"/>
       <c r="Q30" s="49"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -7235,7 +7235,7 @@
       <c r="P31" s="79"/>
       <c r="Q31" s="49"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7254,7 +7254,7 @@
       <c r="P32" s="79"/>
       <c r="Q32" s="49"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -7273,7 +7273,7 @@
       <c r="P33" s="79"/>
       <c r="Q33" s="49"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -7292,7 +7292,7 @@
       <c r="P34" s="79"/>
       <c r="Q34" s="49"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -7311,7 +7311,7 @@
       <c r="P35" s="79"/>
       <c r="Q35" s="49"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -7330,7 +7330,7 @@
       <c r="P36" s="80"/>
       <c r="Q36" s="49"/>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -7385,18 +7385,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -7433,8 +7433,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -7452,7 +7452,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -7474,7 +7474,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -7494,13 +7494,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="75">
         <v>3</v>
       </c>
@@ -7509,24 +7509,24 @@
       <c r="H6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="75" t="s">
         <v>42</v>
       </c>
@@ -7535,18 +7535,18 @@
       <c r="H7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -7564,7 +7564,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -7582,7 +7582,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -7600,7 +7600,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -7618,7 +7618,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -7636,7 +7636,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -7654,7 +7654,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -7672,7 +7672,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -7690,7 +7690,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -7708,7 +7708,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -7726,7 +7726,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -7746,7 +7746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -7764,7 +7764,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -7782,7 +7782,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -7800,7 +7800,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -7818,7 +7818,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -7836,7 +7836,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -7854,7 +7854,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -7872,7 +7872,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -7890,7 +7890,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -7908,7 +7908,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -7926,7 +7926,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -7944,7 +7944,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -7962,7 +7962,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -7982,7 +7982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -8000,7 +8000,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -8018,7 +8018,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -8036,7 +8036,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -8054,7 +8054,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -8072,7 +8072,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -8090,7 +8090,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -8108,7 +8108,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -8128,17 +8128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8161,18 +8161,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -8209,8 +8209,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -8228,7 +8228,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -8250,7 +8250,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -8270,7 +8270,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8288,7 +8288,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="26" t="s">
@@ -8310,17 +8310,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
       <c r="D8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="112"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="35" t="s">
         <v>63</v>
       </c>
@@ -8330,17 +8330,17 @@
       <c r="I8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="112" t="s">
+      <c r="J8" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
@@ -8361,7 +8361,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="26"/>
@@ -8382,7 +8382,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="26"/>
@@ -8403,7 +8403,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="26"/>
@@ -8424,7 +8424,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="26"/>
@@ -8445,7 +8445,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26"/>
@@ -8466,7 +8466,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="26"/>
@@ -8487,7 +8487,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="26"/>
@@ -8508,7 +8508,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="32"/>
@@ -8529,7 +8529,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8550,7 +8550,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8571,7 +8571,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8592,7 +8592,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -8613,7 +8613,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -8634,7 +8634,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -8655,7 +8655,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -8676,7 +8676,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -8697,7 +8697,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -8718,7 +8718,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -8736,7 +8736,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -8754,7 +8754,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8772,7 +8772,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -8790,7 +8790,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -8808,7 +8808,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -8826,7 +8826,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -8844,7 +8844,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -8862,7 +8862,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -8880,7 +8880,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -8898,7 +8898,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -8916,7 +8916,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -8934,7 +8934,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -8954,12 +8954,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -8976,25 +8989,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9012,23 +9012,23 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -9065,8 +9065,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9084,7 +9084,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9106,7 +9106,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9126,7 +9126,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -9144,7 +9144,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -9162,7 +9162,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -9184,7 +9184,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -9206,7 +9206,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -9224,7 +9224,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -9242,7 +9242,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -9264,7 +9264,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -9282,7 +9282,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -9300,7 +9300,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
@@ -9322,7 +9322,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -9340,7 +9340,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -9358,7 +9358,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9376,7 +9376,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
         <v>11</v>
@@ -9398,7 +9398,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
@@ -9418,7 +9418,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
@@ -9438,7 +9438,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9456,7 +9456,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9474,7 +9474,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9492,7 +9492,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9510,7 +9510,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9528,7 +9528,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9546,7 +9546,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9564,7 +9564,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9582,7 +9582,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9600,7 +9600,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9618,7 +9618,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9636,7 +9636,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9654,7 +9654,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9672,7 +9672,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9690,7 +9690,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9708,7 +9708,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -9726,7 +9726,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -9746,7 +9746,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -9787,23 +9787,23 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -9840,8 +9840,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9859,7 +9859,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>138</v>
@@ -9881,7 +9881,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9901,7 +9901,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -9919,27 +9919,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="103" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="104"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="67" t="s">
         <v>23</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -9989,7 +9989,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -10023,7 +10023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -10057,7 +10057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -10091,7 +10091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -10127,7 +10127,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -10161,7 +10161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10353,19 +10353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="24"/>
       <c r="N22" s="68"/>
       <c r="O22" s="69" t="s">
@@ -10376,7 +10376,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -10394,7 +10394,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10478,7 +10478,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10496,7 +10496,7 @@
       <c r="O28" s="41"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10514,7 +10514,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10532,7 +10532,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10550,7 +10550,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10568,7 +10568,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10586,7 +10586,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10604,7 +10604,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10622,7 +10622,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10640,7 +10640,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10658,7 +10658,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10676,7 +10676,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -10690,7 +10690,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -10704,7 +10704,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -10727,42 +10727,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:L10"/>
@@ -10778,6 +10742,42 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10808,24 +10808,24 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="14" width="10.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -10862,8 +10862,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10881,7 +10881,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10903,7 +10903,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -10923,24 +10923,24 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="103" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="112" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>60</v>
@@ -10949,162 +10949,162 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111" t="s">
+      <c r="F8" s="111"/>
+      <c r="G8" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -11113,25 +11113,25 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11149,7 +11149,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -11171,7 +11171,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11191,7 +11191,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -11209,7 +11209,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11227,7 +11227,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11245,7 +11245,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11263,7 +11263,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11281,7 +11281,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11299,7 +11299,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11317,7 +11317,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11335,7 +11335,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11353,7 +11353,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11371,7 +11371,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11389,7 +11389,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11407,7 +11407,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11425,7 +11425,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11443,7 +11443,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11461,7 +11461,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11479,7 +11479,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11497,7 +11497,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11515,7 +11515,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -11533,7 +11533,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -11551,7 +11551,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -11571,16 +11571,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -11597,13 +11594,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11626,18 +11626,18 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -11674,8 +11674,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11693,7 +11693,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>11</v>
@@ -11715,7 +11715,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11735,7 +11735,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="25"/>
@@ -11753,7 +11753,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
@@ -11775,7 +11775,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
@@ -11793,7 +11793,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
@@ -11811,7 +11811,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="26"/>
@@ -11829,7 +11829,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="26"/>
@@ -11847,7 +11847,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="26"/>
@@ -11865,7 +11865,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="26"/>
@@ -11883,7 +11883,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26"/>
@@ -11901,7 +11901,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="26"/>
@@ -11919,7 +11919,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11937,7 +11937,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -11955,7 +11955,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -11973,7 +11973,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -11991,7 +11991,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12009,7 +12009,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12027,7 +12027,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12045,7 +12045,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12063,7 +12063,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12081,7 +12081,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12099,7 +12099,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12117,7 +12117,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12135,7 +12135,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12153,7 +12153,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12171,7 +12171,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12189,7 +12189,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12207,7 +12207,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12225,7 +12225,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12243,7 +12243,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12261,7 +12261,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12279,7 +12279,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12297,7 +12297,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12315,7 +12315,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12333,7 +12333,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -12378,19 +12378,19 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -12427,8 +12427,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12446,7 +12446,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>11</v>
@@ -12468,7 +12468,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12488,7 +12488,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="25"/>
@@ -12506,7 +12506,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
@@ -12528,7 +12528,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
@@ -12546,7 +12546,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
@@ -12564,7 +12564,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="26"/>
@@ -12582,7 +12582,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="26"/>
@@ -12600,7 +12600,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="26"/>
@@ -12618,7 +12618,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="26"/>
@@ -12636,7 +12636,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26"/>
@@ -12654,7 +12654,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="26"/>
@@ -12672,7 +12672,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12690,7 +12690,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12708,7 +12708,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12726,7 +12726,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12744,7 +12744,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12762,7 +12762,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12780,7 +12780,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12798,7 +12798,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12816,7 +12816,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12834,7 +12834,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12852,7 +12852,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12870,7 +12870,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12888,7 +12888,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12906,7 +12906,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12924,7 +12924,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12942,7 +12942,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12960,7 +12960,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12978,7 +12978,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12996,7 +12996,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13014,7 +13014,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13032,7 +13032,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13050,7 +13050,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13068,7 +13068,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13086,7 +13086,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13131,19 +13131,19 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="5" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -13180,8 +13180,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13199,7 +13199,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>11</v>
@@ -13221,7 +13221,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13241,7 +13241,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="25"/>
@@ -13259,7 +13259,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
@@ -13281,7 +13281,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
@@ -13299,7 +13299,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
@@ -13317,7 +13317,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="26"/>
@@ -13335,7 +13335,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="26"/>
@@ -13353,7 +13353,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="26"/>
@@ -13371,7 +13371,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="26"/>
@@ -13389,7 +13389,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26"/>
@@ -13407,7 +13407,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="26"/>
@@ -13425,7 +13425,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13443,7 +13443,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13461,7 +13461,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13479,7 +13479,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13497,7 +13497,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13515,7 +13515,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13533,7 +13533,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13551,7 +13551,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13569,7 +13569,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13587,7 +13587,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13605,7 +13605,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13623,7 +13623,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13641,7 +13641,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13659,7 +13659,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13677,7 +13677,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13695,7 +13695,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13713,7 +13713,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13731,7 +13731,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13749,7 +13749,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13767,7 +13767,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13785,7 +13785,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13803,7 +13803,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13821,7 +13821,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13839,7 +13839,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13884,20 +13884,20 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
@@ -13934,8 +13934,8 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13953,7 +13953,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -13975,7 +13975,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13995,7 +13995,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="25"/>
@@ -14013,28 +14013,28 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
@@ -14042,24 +14042,24 @@
       <c r="E8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="63"/>
       <c r="I8" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="104"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
@@ -14067,194 +14067,194 @@
       <c r="E9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="63"/>
       <c r="I9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="114"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="114"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="63"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="113" t="s">
+      <c r="J10" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="114"/>
+      <c r="K10" s="115"/>
       <c r="L10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="63"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="114"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="63"/>
       <c r="I12" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="114"/>
+      <c r="K12" s="115"/>
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="114"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="63"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="63"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="25"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="2"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="115"/>
       <c r="L16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="2"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="2"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14272,7 +14272,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14290,7 +14290,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14308,7 +14308,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14326,7 +14326,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14344,7 +14344,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14362,7 +14362,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14380,7 +14380,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14396,7 +14396,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14413,7 +14413,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14431,7 +14431,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14449,7 +14449,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14467,7 +14467,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14485,7 +14485,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14503,7 +14503,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14521,7 +14521,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14539,7 +14539,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14557,7 +14557,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14575,7 +14575,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14593,7 +14593,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14611,7 +14611,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14629,18 +14629,29 @@
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A1:C1"/>
@@ -14657,17 +14668,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14690,16 +14690,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="54" t="s">
         <v>77</v>
       </c>
@@ -14719,12 +14719,12 @@
       <c r="O1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="116" t="s">
+      <c r="P1" s="122" t="s">
         <v>57</v>
       </c>
       <c r="Q1" s="71"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -14745,7 +14745,7 @@
       <c r="P2" s="82"/>
       <c r="Q2" s="83"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -14764,7 +14764,7 @@
       <c r="P3" s="56"/>
       <c r="Q3" s="58"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14783,7 +14783,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="48"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -14804,7 +14804,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="49"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -14823,7 +14823,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="49"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -14842,7 +14842,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -14861,7 +14861,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="49"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -14880,7 +14880,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="49"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -14902,7 +14902,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -14921,7 +14921,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -14940,7 +14940,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -14961,7 +14961,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="49"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -14980,7 +14980,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -14999,7 +14999,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="49"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15018,7 +15018,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="49"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15037,7 +15037,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="49"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15056,7 +15056,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="49"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15077,7 +15077,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="49"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="48"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15096,7 +15096,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15115,7 +15115,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="49"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15134,7 +15134,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15153,7 +15153,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15172,7 +15172,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15191,7 +15191,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="49"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15210,7 +15210,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="49"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15229,7 +15229,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="49"/>
     </row>
-    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="48"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15250,7 +15250,7 @@
       <c r="P28" s="86"/>
       <c r="Q28" s="49"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15277,7 +15277,7 @@
       <c r="P29" s="78"/>
       <c r="Q29" s="49"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="48"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15292,13 +15292,13 @@
       <c r="L30" s="75"/>
       <c r="M30" s="75"/>
       <c r="N30" s="75"/>
-      <c r="O30" s="117" t="s">
+      <c r="O30" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="118"/>
+      <c r="P30" s="117"/>
       <c r="Q30" s="49"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15313,11 +15313,11 @@
       <c r="L31" s="75"/>
       <c r="M31" s="75"/>
       <c r="N31" s="75"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="120"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="119"/>
       <c r="Q31" s="49"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15332,11 +15332,11 @@
       <c r="L32" s="75"/>
       <c r="M32" s="75"/>
       <c r="N32" s="75"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="120"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="119"/>
       <c r="Q32" s="49"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15351,11 +15351,11 @@
       <c r="L33" s="75"/>
       <c r="M33" s="75"/>
       <c r="N33" s="75"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="120"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="119"/>
       <c r="Q33" s="49"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15370,11 +15370,11 @@
       <c r="L34" s="75"/>
       <c r="M34" s="75"/>
       <c r="N34" s="75"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="120"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="119"/>
       <c r="Q34" s="49"/>
     </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15389,11 +15389,11 @@
       <c r="L35" s="77"/>
       <c r="M35" s="77"/>
       <c r="N35" s="77"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="122"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="121"/>
       <c r="Q35" s="49"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -15414,12 +15414,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -15429,6 +15423,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
